--- a/biology/Médecine/1945_en_santé_et_médecine/1945_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1945_en_santé_et_médecine/1945_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1945_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1945_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1945 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1945_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1945_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>19 octobre : l'ordonnance du 19 octobre 1945 institue en France la Sécurité sociale.
-Ernst Boris Chain (1906-1979) et Dorothy Crowfoot Hodgkin (1910-1994) déterminent la structure de la pénicilline[1].</t>
+Ernst Boris Chain (1906-1979) et Dorothy Crowfoot Hodgkin (1910-1994) déterminent la structure de la pénicilline.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1945_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1945_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>12 août : Bernard Accoyer (78 ans), homme politique français, spécialiste en oto-rhino-laryngologie (ORL) et en chirurgie cervico-faciale.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1945_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1945_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>20 avril : Johannes Sobotta (né en 1869), médecin anatomiste allemand.
 20 mai : Marc Tiffeneau (né en 1873), médecin, pharmacologue et chimiste français.</t>
